--- a/data_year/zb/科技/按登记注册类型和行业分规模以上工业企业研究与试验发展(研究与试验发展)活动情况/按行业分规模以上工业企业研究与试验发展经费.xlsx
+++ b/data_year/zb/科技/按登记注册类型和行业分规模以上工业企业研究与试验发展(研究与试验发展)活动情况/按行业分规模以上工业企业研究与试验发展经费.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,1190 +628,1152 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3656607.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7852545.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1208652.9</v>
+      </c>
       <c r="E2" t="n">
-        <v>11045000</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>59938054.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>920658.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4699215.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>587559.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2112461.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>190130.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726377.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>90341</v>
+      </c>
+      <c r="M2" t="n">
+        <v>242662</v>
+      </c>
+      <c r="N2" t="n">
+        <v>136992.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1901946.6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>139231.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>144699.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>631281.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>18307.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>159701.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1451310.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>12315.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>428121.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6240087.6</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>154417.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>625446.7</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>821291.2</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1360232.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>289534.3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9410520.4</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4066679.2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>558877.4</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1112914.1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1397206.3</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>72677.7</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>626131.3</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>693436</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>5126475.1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41268.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4249366.8</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>30731302.8</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>72006450.40000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1357189</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5535954.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>634411.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2833055.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>245816.6</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>145283.8</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>2711533.1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>221443.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>187243.7</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>33417.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>198000.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1578772.4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>20007.9</v>
+      </c>
+      <c r="W3" t="n">
+        <v>467874.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7041557.8</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>816377.7</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>862395.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1380288.2</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>10646938.2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>4746047.3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>758049.7</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1874425.1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1635706</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>76882.89999999999</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>868613.9</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>6278473.4</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>61057</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5123163.5</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>37757000</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>83184004.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1729827.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6603728.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>667897.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3476552.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>303888.3</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>224650</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>3011081.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>217517.3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>271582.2</v>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>39293.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>221055.8</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1565541.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>35789.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>584487.9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8153895.2</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>893193.9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>806878.8</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1584877.6</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>12525008</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5478931.8</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>877916.8</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2300165.3</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2150329.3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>71519.7</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>985301.9</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>6330373.9</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>77399.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3656607.7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7852545.9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1208652.9</v>
-      </c>
+        <v>5408743</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>59938054.5</v>
+        <v>92542587</v>
       </c>
       <c r="F5" t="n">
-        <v>920658.2</v>
+        <v>1959216.9</v>
       </c>
       <c r="G5" t="n">
-        <v>4699215.1</v>
+        <v>7465350.1</v>
       </c>
       <c r="H5" t="n">
-        <v>587559.6</v>
+        <v>750081.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2112461.8</v>
+        <v>3903161.1</v>
       </c>
       <c r="J5" t="n">
-        <v>190130.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>726377.3</v>
-      </c>
+        <v>342368.7</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>90341</v>
-      </c>
-      <c r="M5" t="n">
-        <v>242662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>136992.8</v>
-      </c>
+        <v>270705.1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1901946.6</v>
+        <v>3305505.8</v>
       </c>
       <c r="P5" t="n">
-        <v>139231.3</v>
+        <v>202688.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>144699.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>631281.1</v>
-      </c>
+        <v>327156.5</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>18307.1</v>
+        <v>51519.1</v>
       </c>
       <c r="T5" t="n">
-        <v>159701.5</v>
+        <v>209204.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1451310.5</v>
+        <v>1514912.1</v>
       </c>
       <c r="V5" t="n">
-        <v>12315.7</v>
+        <v>55583.7</v>
       </c>
       <c r="W5" t="n">
-        <v>428121.1</v>
+        <v>619008.2</v>
       </c>
       <c r="X5" t="n">
-        <v>6240087.6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>154417.4</v>
-      </c>
+        <v>9228514.699999999</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>625446.7</v>
+        <v>1065743.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>821291.2</v>
+        <v>843601.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>1360232.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>289534.3</v>
-      </c>
+        <v>1776979</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>9410520.4</v>
+        <v>13925133</v>
       </c>
       <c r="AE5" t="n">
-        <v>4066679.2</v>
+        <v>6206000</v>
       </c>
       <c r="AF5" t="n">
-        <v>558877.4</v>
+        <v>964246.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>1112914.1</v>
+        <v>2512352</v>
       </c>
       <c r="AH5" t="n">
-        <v>1397206.3</v>
+        <v>2464629.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>72677.7</v>
+        <v>99477.2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>626131.3</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>693436</v>
-      </c>
+        <v>1126690.5</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>5126475.1</v>
+        <v>6420462.8</v>
       </c>
       <c r="AM5" t="n">
-        <v>41268.2</v>
+        <v>89632.60000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4249366.8</v>
+        <v>5671357.4</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>72006450.40000001</v>
+        <v>100139329.8</v>
       </c>
       <c r="F6" t="n">
-        <v>1357189</v>
+        <v>2160046.6</v>
       </c>
       <c r="G6" t="n">
-        <v>5535954.6</v>
+        <v>7944564.1</v>
       </c>
       <c r="H6" t="n">
-        <v>634411.7</v>
+        <v>784950.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2833055.1</v>
+        <v>4414576.1</v>
       </c>
       <c r="J6" t="n">
-        <v>245816.6</v>
+        <v>368982.2</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>145283.8</v>
+        <v>330128.3</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>2711533.1</v>
+        <v>3715483.5</v>
       </c>
       <c r="P6" t="n">
-        <v>221443.8</v>
+        <v>219863.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>187243.7</v>
+        <v>428164.9</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>33417.2</v>
+        <v>65157</v>
       </c>
       <c r="T6" t="n">
-        <v>198000.5</v>
+        <v>207901.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1578772.4</v>
+        <v>1433009.5</v>
       </c>
       <c r="V6" t="n">
-        <v>20007.9</v>
+        <v>63854.2</v>
       </c>
       <c r="W6" t="n">
-        <v>467874.5</v>
+        <v>814254.4</v>
       </c>
       <c r="X6" t="n">
-        <v>7041557.8</v>
+        <v>10127296.8</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>816377.7</v>
+        <v>1008432.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>862395.5</v>
+        <v>625324</v>
       </c>
       <c r="AB6" t="n">
-        <v>1380288.2</v>
+        <v>2076651.9</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>10646938.2</v>
+        <v>16116757.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>4746047.3</v>
+        <v>6326467.1</v>
       </c>
       <c r="AF6" t="n">
-        <v>758049.7</v>
+        <v>1076050.1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1874425.1</v>
+        <v>2826592.8</v>
       </c>
       <c r="AH6" t="n">
-        <v>1635706</v>
+        <v>2776206.4</v>
       </c>
       <c r="AI6" t="n">
-        <v>76882.89999999999</v>
+        <v>103564.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>868613.9</v>
+        <v>1354293.9</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>6278473.4</v>
+        <v>5612273</v>
       </c>
       <c r="AM6" t="n">
-        <v>61057</v>
+        <v>92145.89999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5123163.5</v>
+        <v>5771278.4</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>83184004.8</v>
+        <v>109446585.6</v>
       </c>
       <c r="F7" t="n">
-        <v>1729827.2</v>
+        <v>2497205.1</v>
       </c>
       <c r="G7" t="n">
-        <v>6603728.1</v>
+        <v>8407489.4</v>
       </c>
       <c r="H7" t="n">
-        <v>667897.1</v>
+        <v>838237.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3476552.7</v>
+        <v>4884712.2</v>
       </c>
       <c r="J7" t="n">
-        <v>303888.3</v>
+        <v>467515.2</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>224650</v>
+        <v>428659</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>3011081.1</v>
+        <v>4068224.3</v>
       </c>
       <c r="P7" t="n">
-        <v>217517.3</v>
+        <v>270861.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>271582.2</v>
+        <v>528737</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>39293.1</v>
+        <v>74012</v>
       </c>
       <c r="T7" t="n">
-        <v>221055.8</v>
+        <v>214301.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1565541.5</v>
+        <v>1320743.5</v>
       </c>
       <c r="V7" t="n">
-        <v>35789.1</v>
+        <v>76626.5</v>
       </c>
       <c r="W7" t="n">
-        <v>584487.9</v>
+        <v>815656.8</v>
       </c>
       <c r="X7" t="n">
-        <v>8153895.2</v>
+        <v>11023816.6</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>893193.9</v>
+        <v>1196271.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>806878.8</v>
+        <v>638939.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1584877.6</v>
+        <v>2199360</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>12525008</v>
+        <v>18109749.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>5478931.8</v>
+        <v>6657262.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>877916.8</v>
+        <v>1227574.8</v>
       </c>
       <c r="AG7" t="n">
-        <v>2300165.3</v>
+        <v>3263459.2</v>
       </c>
       <c r="AH7" t="n">
-        <v>2150329.3</v>
+        <v>3230847.7</v>
       </c>
       <c r="AI7" t="n">
-        <v>71519.7</v>
+        <v>111477.4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>985301.9</v>
+        <v>1528195.7</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>6330373.9</v>
+        <v>5377120.7</v>
       </c>
       <c r="AM7" t="n">
-        <v>77399.2</v>
+        <v>103687.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5408743</v>
+        <v>6369443.5</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>92542587</v>
+        <v>120129588.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1959216.9</v>
+        <v>2745770.3</v>
       </c>
       <c r="G8" t="n">
-        <v>7465350.1</v>
+        <v>9124767.4</v>
       </c>
       <c r="H8" t="n">
-        <v>750081.4</v>
+        <v>1060665.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3903161.1</v>
+        <v>5341769.3</v>
       </c>
       <c r="J8" t="n">
-        <v>342368.7</v>
+        <v>539399</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>270705.1</v>
+        <v>554273.3</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>3305505.8</v>
+        <v>4616195.8</v>
       </c>
       <c r="P8" t="n">
-        <v>202688.7</v>
+        <v>311920.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>327156.5</v>
+        <v>602742.9</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>51519.1</v>
+        <v>95827</v>
       </c>
       <c r="T8" t="n">
-        <v>209204.3</v>
+        <v>197868.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1514912.1</v>
+        <v>1489055.6</v>
       </c>
       <c r="V8" t="n">
-        <v>55583.7</v>
+        <v>110866.5</v>
       </c>
       <c r="W8" t="n">
-        <v>619008.2</v>
+        <v>857748.3</v>
       </c>
       <c r="X8" t="n">
-        <v>9228514.699999999</v>
+        <v>12423807</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>1065743.1</v>
+        <v>1465965.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>843601.2</v>
+        <v>572560.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>1776979</v>
+        <v>2331791.7</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>13925133</v>
+        <v>20027613.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>6206000</v>
+        <v>6968193.9</v>
       </c>
       <c r="AF8" t="n">
-        <v>964246.8</v>
+        <v>1445953.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>2512352</v>
+        <v>3431676.4</v>
       </c>
       <c r="AH8" t="n">
-        <v>2464629.5</v>
+        <v>3628146.7</v>
       </c>
       <c r="AI8" t="n">
-        <v>99477.2</v>
+        <v>118731.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1126690.5</v>
+        <v>1480531.8</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>6420462.8</v>
+        <v>6387462.6</v>
       </c>
       <c r="AM8" t="n">
-        <v>89632.60000000001</v>
+        <v>72513.60000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5671357.4</v>
+        <v>7257637.9</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>100139329.8</v>
+        <v>129548263.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2160046.6</v>
+        <v>2610675.3</v>
       </c>
       <c r="G9" t="n">
-        <v>7944564.1</v>
+        <v>8999254.6</v>
       </c>
       <c r="H9" t="n">
-        <v>784950.8</v>
+        <v>1121162.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4414576.1</v>
+        <v>5808856.7</v>
       </c>
       <c r="J9" t="n">
-        <v>368982.2</v>
+        <v>667107.8</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>330128.3</v>
+        <v>680099.4</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>3715483.5</v>
+        <v>4425396.1</v>
       </c>
       <c r="P9" t="n">
-        <v>219863.3</v>
+        <v>317254.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>428164.9</v>
+        <v>546652.4</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>65157</v>
+        <v>98645.3</v>
       </c>
       <c r="T9" t="n">
-        <v>207901.2</v>
+        <v>266076</v>
       </c>
       <c r="U9" t="n">
-        <v>1433009.5</v>
+        <v>1464527.1</v>
       </c>
       <c r="V9" t="n">
-        <v>63854.2</v>
+        <v>136339.1</v>
       </c>
       <c r="W9" t="n">
-        <v>814254.4</v>
+        <v>968697.3</v>
       </c>
       <c r="X9" t="n">
-        <v>10127296.8</v>
+        <v>13201357.1</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>1008432.1</v>
+        <v>1454100</v>
       </c>
       <c r="AA9" t="n">
-        <v>625324</v>
+        <v>892630.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>2076651.9</v>
+        <v>2554380.7</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>16116757.2</v>
+        <v>22799013.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>6326467.1</v>
+        <v>7356002.9</v>
       </c>
       <c r="AF9" t="n">
-        <v>1076050.1</v>
+        <v>1677815.7</v>
       </c>
       <c r="AG9" t="n">
-        <v>2826592.8</v>
+        <v>3893723.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>2776206.4</v>
+        <v>4158518.4</v>
       </c>
       <c r="AI9" t="n">
-        <v>103564.5</v>
+        <v>148070.7</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1354293.9</v>
+        <v>1609628.4</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>5612273</v>
+        <v>7068793.9</v>
       </c>
       <c r="AM9" t="n">
-        <v>92145.89999999999</v>
+        <v>120431.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5771278.4</v>
+        <v>7767235.4</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>109446585.6</v>
+        <v>139710989.4</v>
       </c>
       <c r="F10" t="n">
-        <v>2497205.1</v>
+        <v>2619763.3</v>
       </c>
       <c r="G10" t="n">
-        <v>8407489.4</v>
+        <v>9234036.199999999</v>
       </c>
       <c r="H10" t="n">
-        <v>838237.9</v>
+        <v>1236879.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4884712.2</v>
+        <v>6095604.9</v>
       </c>
       <c r="J10" t="n">
-        <v>467515.2</v>
+        <v>795816.2</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>428659</v>
+        <v>735978</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>4068224.3</v>
+        <v>4798097.5</v>
       </c>
       <c r="P10" t="n">
-        <v>270861.3</v>
+        <v>217863.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>528737</v>
+        <v>631501.8</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>74012</v>
+        <v>144401.8</v>
       </c>
       <c r="T10" t="n">
-        <v>214301.2</v>
+        <v>303865.3</v>
       </c>
       <c r="U10" t="n">
-        <v>1320743.5</v>
+        <v>1092399.4</v>
       </c>
       <c r="V10" t="n">
-        <v>76626.5</v>
+        <v>170176.8</v>
       </c>
       <c r="W10" t="n">
-        <v>815656.8</v>
+        <v>1130497.3</v>
       </c>
       <c r="X10" t="n">
-        <v>11023816.6</v>
+        <v>14061749.3</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>1196271.3</v>
+        <v>1846975.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>638939.1</v>
+        <v>937990.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>2199360</v>
+        <v>2658672.6</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>18109749.9</v>
+        <v>24480937</v>
       </c>
       <c r="AE10" t="n">
-        <v>6657262.5</v>
+        <v>8228765.6</v>
       </c>
       <c r="AF10" t="n">
-        <v>1227574.8</v>
+        <v>1576679.9</v>
       </c>
       <c r="AG10" t="n">
-        <v>3263459.2</v>
+        <v>4663828</v>
       </c>
       <c r="AH10" t="n">
-        <v>3230847.7</v>
+        <v>5200940.9</v>
       </c>
       <c r="AI10" t="n">
-        <v>111477.4</v>
+        <v>185833</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1528195.7</v>
+        <v>1562119.6</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>5377120.7</v>
+        <v>8863003.4</v>
       </c>
       <c r="AM10" t="n">
-        <v>103687.1</v>
+        <v>134369.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6369443.5</v>
+        <v>9659894.199999999</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>120129588.5</v>
+        <v>152712904.9</v>
       </c>
       <c r="F11" t="n">
-        <v>2745770.3</v>
+        <v>2765772</v>
       </c>
       <c r="G11" t="n">
-        <v>9124767.4</v>
+        <v>7972318.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1060665.8</v>
+        <v>1323592.6</v>
       </c>
       <c r="I11" t="n">
-        <v>5341769.3</v>
+        <v>7845971</v>
       </c>
       <c r="J11" t="n">
-        <v>539399</v>
+        <v>935793.2</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>554273.3</v>
+        <v>907096.1</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>4616195.8</v>
+        <v>4187730.4</v>
       </c>
       <c r="P11" t="n">
-        <v>311920.9</v>
+        <v>226239.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>602742.9</v>
+        <v>672873.7</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>95827</v>
+        <v>172113</v>
       </c>
       <c r="T11" t="n">
-        <v>197868.6</v>
+        <v>280011.8</v>
       </c>
       <c r="U11" t="n">
-        <v>1489055.6</v>
+        <v>1200800.1</v>
       </c>
       <c r="V11" t="n">
-        <v>110866.5</v>
+        <v>236469.5</v>
       </c>
       <c r="W11" t="n">
-        <v>857748.3</v>
+        <v>1518189.7</v>
       </c>
       <c r="X11" t="n">
-        <v>12423807</v>
+        <v>15670594.1</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>1465965.4</v>
+        <v>1895685.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>572560.3</v>
+        <v>801308.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>2331791.7</v>
+        <v>2313584.2</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>20027613.3</v>
+        <v>29151620.8</v>
       </c>
       <c r="AE11" t="n">
-        <v>6968193.9</v>
+        <v>9778884.6</v>
       </c>
       <c r="AF11" t="n">
-        <v>1445953.4</v>
+        <v>1365798</v>
       </c>
       <c r="AG11" t="n">
-        <v>3431676.4</v>
+        <v>5619467.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>3628146.7</v>
+        <v>5131083.2</v>
       </c>
       <c r="AI11" t="n">
-        <v>118731.7</v>
+        <v>202567.8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1480531.8</v>
+        <v>1572920.4</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>6387462.6</v>
+        <v>7992978.7</v>
       </c>
       <c r="AM11" t="n">
-        <v>72513.60000000001</v>
+        <v>182604.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7257637.9</v>
+        <v>10354332.4</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>129548263.7</v>
+        <v>175142461.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2610675.3</v>
+        <v>3487655.7</v>
       </c>
       <c r="G12" t="n">
-        <v>8999254.6</v>
+        <v>8571439.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1121162.3</v>
+        <v>1693471.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5808856.7</v>
+        <v>9424368.4</v>
       </c>
       <c r="J12" t="n">
-        <v>667107.8</v>
+        <v>955613.2</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>680099.4</v>
+        <v>1020228.7</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>4425396.1</v>
+        <v>4753454.5</v>
       </c>
       <c r="P12" t="n">
-        <v>317254.3</v>
+        <v>296064.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>546652.4</v>
+        <v>901351.1</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>98645.3</v>
+        <v>184183.4</v>
       </c>
       <c r="T12" t="n">
-        <v>266076</v>
+        <v>253316.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1464527.1</v>
+        <v>1432707.3</v>
       </c>
       <c r="V12" t="n">
-        <v>136339.1</v>
+        <v>267792.2</v>
       </c>
       <c r="W12" t="n">
-        <v>968697.3</v>
+        <v>1842448.1</v>
       </c>
       <c r="X12" t="n">
-        <v>13201357.1</v>
+        <v>18181397.3</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>1454100</v>
+        <v>1882810.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>892630.6</v>
+        <v>928971</v>
       </c>
       <c r="AB12" t="n">
-        <v>2554380.7</v>
+        <v>2316639</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>22799013.2</v>
+        <v>35777881.9</v>
       </c>
       <c r="AE12" t="n">
-        <v>7356002.9</v>
+        <v>11190807.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>1677815.7</v>
+        <v>1360732.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>3893723.4</v>
+        <v>6830431.9</v>
       </c>
       <c r="AH12" t="n">
-        <v>4158518.4</v>
+        <v>5525800.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>148070.7</v>
+        <v>298395.6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1609628.4</v>
+        <v>1566227.3</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>7068793.9</v>
+        <v>9066767.699999999</v>
       </c>
       <c r="AM12" t="n">
-        <v>120431.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7767235.4</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>139710989.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2619763.3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9234036.199999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1236879.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6095604.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>795816.2</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>735978</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>4798097.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>217863.9</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>631501.8</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>144401.8</v>
-      </c>
-      <c r="T13" t="n">
-        <v>303865.3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1092399.4</v>
-      </c>
-      <c r="V13" t="n">
-        <v>170176.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1130497.3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>14061749.3</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>1846975.6</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>937990.1</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>2658672.6</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>24480937</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>8228765.6</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1576679.9</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>4663828</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>5200940.9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>185833</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1562119.6</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>8863003.4</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>134369.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9659894.199999999</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>152712904.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2765772</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7972318.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1323592.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7845971</v>
-      </c>
-      <c r="J14" t="n">
-        <v>935793.2</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>907096.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>4187730.4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>226239.1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>672873.7</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>172113</v>
-      </c>
-      <c r="T14" t="n">
-        <v>280011.8</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1200800.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>236469.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1518189.7</v>
-      </c>
-      <c r="X14" t="n">
-        <v>15670594.1</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>1895685.1</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>801308.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>2313584.2</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>29151620.8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>9778884.6</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1365798</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>5619467.1</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>5131083.2</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>202567.8</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1572920.4</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>7992978.7</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>182604.7</v>
+        <v>340914.9</v>
       </c>
     </row>
   </sheetData>
